--- a/scoresheets/MATCH23.xlsx
+++ b/scoresheets/MATCH23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J. Edgington\Documents\GitHub\DUOACHCATT-5-15-21-STATS\scoresheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab4ea91dc20bd738/Documents/GitHub/DUOACHCATT-5-15-21-STATS/scoresheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84474534-D7C6-4545-A5D4-83F5DB5CBA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -866,9 +866,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,40 +909,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,16 +947,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,31 +1279,31 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.453125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="11.46484375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78" t="s">
+    <row r="1" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="73"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="56"/>
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
       <c r="M1" s="56"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1332,8 +1332,8 @@
       <c r="M2" s="47"/>
       <c r="N2" s="47"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1348,8 +1348,8 @@
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="58"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1362,8 +1362,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="64"/>
+    <row r="5" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="59"/>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1378,8 +1378,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1394,8 +1394,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="58"/>
       <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1408,8 +1408,8 @@
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+    <row r="8" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="61"/>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1424,8 +1424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1440,8 +1440,8 @@
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="58"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1454,8 +1454,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1470,8 +1470,8 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1486,8 +1486,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="58"/>
       <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
@@ -1500,8 +1500,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="61"/>
       <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
@@ -1516,8 +1516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1532,8 +1532,8 @@
       <c r="G15" s="5"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="58"/>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1546,8 +1546,8 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="61"/>
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
@@ -1562,8 +1562,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1578,8 +1578,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="58"/>
       <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
@@ -1592,8 +1592,8 @@
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="61"/>
       <c r="B20" s="18" t="s">
         <v>11</v>
       </c>
@@ -1608,8 +1608,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1624,8 +1624,8 @@
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="70"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="58"/>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
@@ -1638,8 +1638,8 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="71"/>
+    <row r="23" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="61"/>
       <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
@@ -1652,8 +1652,8 @@
       <c r="G23" s="11"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="72" t="s">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="60" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1670,8 +1670,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="70"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="58"/>
       <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
@@ -1684,8 +1684,8 @@
       <c r="G25" s="17"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="61"/>
       <c r="B26" s="18" t="s">
         <v>11</v>
       </c>
@@ -1698,8 +1698,8 @@
       <c r="G26" s="20"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="69" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1716,8 +1716,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="58"/>
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
@@ -1730,8 +1730,8 @@
       <c r="G28" s="8"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="61"/>
       <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
@@ -1746,8 +1746,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="72" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="60" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -1762,8 +1762,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="70"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="58"/>
       <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
@@ -1776,8 +1776,8 @@
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="71"/>
+    <row r="32" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="61"/>
       <c r="B32" s="24" t="s">
         <v>11</v>
       </c>
@@ -1790,51 +1790,51 @@
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="63">
+      <c r="B33" s="72"/>
+      <c r="C33" s="67">
         <f>SUM(C3:C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="68">
         <f>SUM(D3:D32)</f>
         <v>2</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="75">
         <f>SUM(E3:E32)+C33+D33</f>
         <v>7</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="67">
         <f>SUM(F3:F32)</f>
         <v>2</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="68">
         <f>SUM(G3:G32)</f>
         <v>6</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="77">
         <f>SUM(H3:H32)+F33+G33</f>
         <v>11</v>
       </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="68"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="78"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
@@ -1844,21 +1844,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="M33:M34"/>
@@ -1870,6 +1855,21 @@
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="J33:J34"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1884,9 +1884,9 @@
       <selection activeCell="F3" sqref="F3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="83"/>
       <c r="B1" s="79" t="str">
         <f>Category!C1</f>
@@ -1894,27 +1894,27 @@
       </c>
       <c r="C1" s="80"/>
       <c r="D1" s="80"/>
-      <c r="E1" s="58"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="82" t="str">
         <f>Category!F1</f>
         <v>The Woke Left Strikes Again</v>
       </c>
       <c r="G1" s="80"/>
       <c r="H1" s="80"/>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="72"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="84"/>
-      <c r="B2" s="59"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
-      <c r="I2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>22</v>
       </c>
@@ -1923,257 +1923,257 @@
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
-      <c r="E3" s="58"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="87">
         <v>12</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="80"/>
-      <c r="I3" s="58"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="72"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="84"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="46"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="46"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="46"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="46"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="46"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="46"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="46"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="46"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="46"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="46"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="46"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="46"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="46"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="46"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="46"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="46"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="46"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="46"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="46"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="46"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="46"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="46"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="46"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="46"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="46"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="46"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="46"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="46"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="46"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="46"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="46"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="46"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="46"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="46"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="46"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="46"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="46"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="46"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="46"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="46"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="46"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="46"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="46"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="46"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="46"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="46"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="46"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="46"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="46"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="46"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="46"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="46"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="46"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="46"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="46"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="46"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="46"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="46"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="46"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="46"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="46"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="46"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" s="46"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="46"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" s="46"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" s="46"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="46"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="46"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="46"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="46"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" s="46"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="46"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="46"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="46"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="46"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="46"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="46"/>
     </row>
   </sheetData>
@@ -2194,27 +2194,27 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="C1" s="75" t="str">
+      <c r="C1" s="62" t="str">
         <f>Category!C1</f>
         <v>The 'Daley' Double</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78" t="str">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65" t="str">
         <f>Category!F1</f>
         <v>The Woke Left Strikes Again</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2248,7 +2248,7 @@
       <c r="M2" s="47"/>
       <c r="N2" s="47"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="89">
         <v>5</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="90"/>
       <c r="B4" s="29">
         <v>2</v>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="90"/>
       <c r="B5" s="29">
         <v>3</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="90"/>
       <c r="B6" s="29">
         <v>4</v>
@@ -2304,7 +2304,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="84"/>
       <c r="B7" s="30">
         <v>5</v>
@@ -2318,7 +2318,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="91">
         <v>10</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="90"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="90"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -2362,7 +2362,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="90"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="84"/>
       <c r="B12" s="33">
         <v>10</v>
@@ -2390,7 +2390,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="89">
         <v>15</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="90"/>
       <c r="B14" s="29">
         <v>12</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="90"/>
       <c r="B15" s="29">
         <v>13</v>
@@ -2432,7 +2432,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="90"/>
       <c r="B16" s="29">
         <v>14</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="84"/>
       <c r="B17" s="30">
         <v>15</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="91">
         <v>20</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="90"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -2490,7 +2490,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="90"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -2504,7 +2504,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="90"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -2518,7 +2518,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="84"/>
       <c r="B22" s="33">
         <v>20</v>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="89">
         <v>25</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="90"/>
       <c r="B24" s="29">
         <v>22</v>
@@ -2560,7 +2560,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="90"/>
       <c r="B25" s="29">
         <v>23</v>
@@ -2572,7 +2572,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="90"/>
       <c r="B26" s="29">
         <v>24</v>
@@ -2584,7 +2584,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="84"/>
       <c r="B27" s="30">
         <v>25</v>
@@ -2598,7 +2598,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="92">
         <v>30</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="90"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -2628,7 +2628,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="90"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="90"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -2654,7 +2654,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="84"/>
       <c r="B32" s="33">
         <v>30</v>
@@ -2666,28 +2666,28 @@
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="63">
+      <c r="B33" s="72"/>
+      <c r="C33" s="67">
         <f>SUM(C3:C32)</f>
         <v>7</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="68">
         <f>SUM(D3:D32)</f>
         <v>8</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="77">
         <f>SUM(E3:E32)+C33+D33</f>
         <v>15</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="67">
         <f>SUM(F3:F32)</f>
         <v>14</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="68">
         <f>SUM(G3:G32)</f>
         <v>19</v>
       </c>
@@ -2702,15 +2702,15 @@
       <c r="M33" s="46"/>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="68"/>
+    <row r="34" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="78"/>
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="46"/>
@@ -2748,155 +2748,155 @@
       <selection activeCell="C9" sqref="C9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="73"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="55"/>
       <c r="B1" s="56"/>
-      <c r="C1" s="95" t="str">
+      <c r="C1" s="93" t="str">
         <f>Category!C1</f>
         <v>The 'Daley' Double</v>
       </c>
       <c r="D1" s="80"/>
       <c r="E1" s="80"/>
       <c r="F1" s="80"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="96" t="str">
+      <c r="G1" s="72"/>
+      <c r="H1" s="94" t="str">
         <f>Category!F1</f>
         <v>The Woke Left Strikes Again</v>
       </c>
       <c r="I1" s="80"/>
       <c r="J1" s="80"/>
       <c r="K1" s="80"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="72"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="59"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="59"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="81"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
-      <c r="L2" s="60"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="93" t="s">
+      <c r="L2" s="74"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="93">
+      <c r="B3" s="72"/>
+      <c r="C3" s="95">
         <f>Category!E33</f>
         <v>7</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="80"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="93">
+      <c r="G3" s="72"/>
+      <c r="H3" s="95">
         <f>Category!H33</f>
         <v>11</v>
       </c>
       <c r="I3" s="80"/>
       <c r="J3" s="80"/>
       <c r="K3" s="80"/>
-      <c r="L3" s="58"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="59"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="59"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
-      <c r="L4" s="60"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="L4" s="74"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="94">
+      <c r="B5" s="72"/>
+      <c r="C5" s="96">
         <f>Alphabet!B3</f>
         <v>8</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="94">
+      <c r="G5" s="72"/>
+      <c r="H5" s="96">
         <f>Alphabet!F3</f>
         <v>12</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
       <c r="K5" s="80"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="59"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
       <c r="F6" s="81"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
       <c r="K6" s="81"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="93" t="s">
+      <c r="L6" s="74"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="93">
+      <c r="B7" s="72"/>
+      <c r="C7" s="95">
         <f>Lightning!E33</f>
         <v>15</v>
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="93">
+      <c r="G7" s="72"/>
+      <c r="H7" s="95">
         <f>Lightning!H33</f>
         <v>33</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
-      <c r="L7" s="58"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="59"/>
+      <c r="L7" s="72"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
       <c r="F8" s="81"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="81"/>
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
-      <c r="L8" s="60"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="79">
         <f>SUM(C3:G8)</f>
         <v>30</v>
@@ -2904,7 +2904,7 @@
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
-      <c r="G9" s="58"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="82">
         <f>SUM(H3:L8)</f>
         <v>56</v>
@@ -2912,29 +2912,24 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
-      <c r="L9" s="58"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="59"/>
+      <c r="L9" s="72"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
       <c r="F10" s="81"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="81"/>
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
-      <c r="L10" s="60"/>
+      <c r="L10" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="H1:L2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:G4"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="H9:L10"/>
@@ -2945,6 +2940,11 @@
     <mergeCell ref="C7:G8"/>
     <mergeCell ref="H7:L8"/>
     <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="H1:L2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2958,13 +2958,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.265625" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="47" customWidth="1"/>
-    <col min="2" max="16384" width="12.26953125" style="47"/>
+    <col min="1" max="1" width="12.265625" style="47" customWidth="1"/>
+    <col min="2" max="16384" width="12.265625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="38" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="str">
         <f>Category!C2</f>
         <v>Duke Hogs (Hogan Daley)</v>
@@ -2996,7 +2996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="49" t="str">
         <f>Category!D2</f>
         <v>Sir Wheeze (Marcus Daley)</v>
@@ -3014,7 +3014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="str">
         <f>Category!F2</f>
         <v>Noah Mcredmond</v>
@@ -3032,7 +3032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="50" t="str">
         <f>Category!G2</f>
         <v>Clete Reinberger</v>
@@ -3063,9 +3063,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="29.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="29.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="38" t="s">
         <v>27</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="str">
         <f t="array" ref="A2:D5">_xlfn._xlws.SORT(Individuals_Raw!A2:D5, 2, -1)</f>
         <v>Clete Reinberger</v>
@@ -3094,7 +3094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="49" t="str">
         <v>Noah Mcredmond</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="str">
         <v>Sir Wheeze (Marcus Daley)</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="50" t="str">
         <v>Duke Hogs (Hogan Daley)</v>
       </c>
@@ -3136,37 +3136,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
     </row>
-    <row r="7" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
     </row>
-    <row r="8" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
     </row>
-    <row r="9" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
     </row>
-    <row r="10" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
     </row>
-    <row r="11" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
